--- a/Clientes/PEI/Pei AM - Agendamiento de actividades Interact-Pei 2022.xlsx
+++ b/Clientes/PEI/Pei AM - Agendamiento de actividades Interact-Pei 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://peiasset-my.sharepoint.com/personal/jcontreras_pei_com_co/Documents/Documentos/6. Planificación área 2021- 2024/3. Proyecto BPMs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3190697B-C69C-41E6-B5DE-9861DC6B79AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{310809AD-1A29-496A-B6DD-4A46FD3549AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -34,8 +33,26 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={EEE789B1-05A6-4D3A-B4F3-0B33EB7F5DD7}</author>
+  </authors>
+  <commentList>
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{EEE789B1-05A6-4D3A-B4F3-0B33EB7F5DD7}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Nuestro equipo técnico necesitamos que este acompañado por FElipe,, la madurez aún no la tenemos para que ellos esten trabajando solo y nos puedan hacer match, por eso el paralelo nos lo vemos factible. y nos gustaría estar los dos.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Agendamiento actividades</t>
   </si>
@@ -105,6 +122,9 @@
     <t>Equipo de TI</t>
   </si>
   <si>
+    <t>Sesion cancelada por INTERACT</t>
+  </si>
+  <si>
     <t>Automatización de procesos y aspectos técnicos:
 - Uso del Data Integrator
 - Creación de componentes.</t>
@@ -127,12 +147,12 @@
 - Uso del crosstalk</t>
   </si>
   <si>
+    <t>Fecha propuesta para trabajar esta agenda. Será en paralelo con la agenda técnica.</t>
+  </si>
+  <si>
     <t>Automatización de procesos y aspectos técnicos:
 - Uso de reglas de la Suite SA.
 - Ejemplos de reglas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha propuesta para trabajar esta agenda. Será en paralelo con la agenda técnica. Pero creo que Felipe participa en esas sesiones técnicas </t>
   </si>
   <si>
     <t>Automatización de procesos y aspectos técnicos:
@@ -275,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -309,20 +329,29 @@
     <xf numFmtId="165" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -461,6 +490,12 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Joan Andres Contreras Bustos" id="{8A7B5BB1-CFEF-4F70-86F6-BD5DD1ABCCDD}" userId="S::jcontreras@pei.com.co::2a745cc8-88a5-4953-8b83-4638cf6ee921" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -758,12 +793,20 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I15" dT="2022-03-07T15:18:03.51" personId="{8A7B5BB1-CFEF-4F70-86F6-BD5DD1ABCCDD}" id="{EEE789B1-05A6-4D3A-B4F3-0B33EB7F5DD7}">
+    <text>Nuestro equipo técnico necesitamos que este acompañado por FElipe,, la madurez aún no la tenemos para que ellos esten trabajando solo y nos puedan hacer match, por eso el paralelo nos lo vemos factible. y nos gustaría estar los dos.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A4:AMJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D8" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -786,28 +829,28 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="6" customHeight="1"/>
-    <row r="6" spans="2:9" ht="6" customHeight="1" thickBot="1"/>
-    <row r="7" spans="2:9" ht="15.75" thickBot="1">
-      <c r="B7" s="13" t="s">
+    <row r="6" spans="2:9" ht="6" customHeight="1"/>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="17"/>
+      <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -818,21 +861,21 @@
       <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="2:9" ht="27.75">
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="2:9" ht="30">
       <c r="B9" s="7">
         <v>44622</v>
       </c>
       <c r="C9" s="7">
         <v>44623</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -856,63 +899,63 @@
       <c r="C10" s="9">
         <v>44624</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="8" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="54.75">
-      <c r="B11" s="10">
+    <row r="11" spans="2:9" ht="75">
+      <c r="B11" s="19">
         <v>44627</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="19">
         <v>44627</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="41.25">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="60">
       <c r="B12" s="10">
         <v>44628</v>
       </c>
       <c r="C12" s="10">
         <v>44628</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="19"/>
+        <v>23</v>
+      </c>
+      <c r="F12" s="22"/>
       <c r="G12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -923,34 +966,34 @@
         <v>44629</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="19"/>
+        <v>26</v>
+      </c>
+      <c r="F13" s="22"/>
       <c r="G13" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="41.25">
+    <row r="14" spans="2:9" ht="60">
       <c r="B14" s="10">
         <v>44629</v>
       </c>
       <c r="C14" s="10">
         <v>44629</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="F14" s="22"/>
       <c r="G14" s="8" t="s">
         <v>21</v>
       </c>
@@ -959,60 +1002,60 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="41.25">
-      <c r="B15" s="10">
+    <row r="15" spans="2:9" ht="45">
+      <c r="B15" s="12">
+        <v>44629</v>
+      </c>
+      <c r="C15" s="12">
+        <v>44629</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="60">
+      <c r="B16" s="10">
         <v>44630</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C16" s="10">
         <v>44630</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="8" t="s">
+      <c r="D16" s="21"/>
+      <c r="E16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8" t="s">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="54.75">
-      <c r="B16" s="12">
-        <v>44630</v>
-      </c>
-      <c r="C16" s="12">
-        <v>44630</v>
-      </c>
-      <c r="D16" s="18"/>
-      <c r="E16" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="54.75">
+    <row r="17" spans="2:9" ht="75">
       <c r="B17" s="10">
         <v>44631</v>
       </c>
       <c r="C17" s="10">
         <v>44631</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="F17" s="22"/>
       <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
@@ -1025,20 +1068,14 @@
       <c r="D18" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="I7:I8"/>
+  <mergeCells count="3">
     <mergeCell ref="D9:D12"/>
     <mergeCell ref="D14:D17"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="F11:F17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
   </mergeCells>
   <pageMargins left="0.51180555555555596" right="0.51180555555555596" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>